--- a/biology/Zoologie/Aspidoras_pauciradiatus/Aspidoras_pauciradiatus.xlsx
+++ b/biology/Zoologie/Aspidoras_pauciradiatus/Aspidoras_pauciradiatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aspidoras pauciradiatus est une espèce de poissons-chats de la famille des callichthyidés et originaire du Brésil (Rio Araguaia)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aspidoras pauciradiatus est une espèce de poissons-chats de la famille des callichthyidés et originaire du Brésil (Rio Araguaia).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille maximale connue pour Aspidoras pauciradiatus est de 29 mm[3]. Cette espèce se déplace généralement en bancs[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille maximale connue pour Aspidoras pauciradiatus est de 29 mm. Cette espèce se déplace généralement en bancs.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, du latin pauci, « peu », et radiatus, « rayon(s) », fait référence au fait que cette espèce ne présente que six rayons mous à sa nageoire dorsale alors que les autres espèces du même genre en ont sept[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, du latin pauci, « peu », et radiatus, « rayon(s) », fait référence au fait que cette espèce ne présente que six rayons mous à sa nageoire dorsale alors que les autres espèces du même genre en ont sept.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Stanley H. Weitzman et Han Nijssen, « Four new species and one new subspecies of the catfish genus Corydoras from Ecuador, Colombia and Brazil (Pisces, Siluriformes, Callichthyidae) », Beaufortia, vol. 18, no 233,‎ 15 octobre 1970, p. 119-132.</t>
         </is>
